--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.7024315967934</v>
+        <v>239.9764363407983</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.2484007184361</v>
+        <v>328.3463472145042</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.1327638780128</v>
+        <v>297.0094326734421</v>
       </c>
       <c r="AD2" t="n">
-        <v>161702.4315967934</v>
+        <v>239976.4363407983</v>
       </c>
       <c r="AE2" t="n">
-        <v>221248.4007184361</v>
+        <v>328346.3472145042</v>
       </c>
       <c r="AF2" t="n">
         <v>1.07506975369744e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>200132.7638780128</v>
+        <v>297009.4326734421</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.3393724657601</v>
+        <v>229.7917015504932</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.7516471983182</v>
+        <v>314.4111437556281</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.6834198166568</v>
+        <v>284.4041854744959</v>
       </c>
       <c r="AD3" t="n">
-        <v>161339.3724657601</v>
+        <v>229791.7015504932</v>
       </c>
       <c r="AE3" t="n">
-        <v>220751.6471983182</v>
+        <v>314411.1437556281</v>
       </c>
       <c r="AF3" t="n">
         <v>1.087244198286534e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>199683.4198166568</v>
+        <v>284404.1854744959</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5308631552072</v>
+        <v>236.9410909372903</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.2771649738212</v>
+        <v>324.1932537234383</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4450987027074</v>
+        <v>293.2527045962589</v>
       </c>
       <c r="AD2" t="n">
-        <v>159530.8631552072</v>
+        <v>236941.0909372903</v>
       </c>
       <c r="AE2" t="n">
-        <v>218277.1649738212</v>
+        <v>324193.2537234383</v>
       </c>
       <c r="AF2" t="n">
         <v>1.178896122071245e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197445.0987027074</v>
+        <v>293252.7045962589</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.8639591209475</v>
+        <v>237.6063278122734</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.8376539199608</v>
+        <v>325.1034601639695</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.5703409845154</v>
+        <v>294.0760422115889</v>
       </c>
       <c r="AD2" t="n">
-        <v>162863.9591209475</v>
+        <v>237606.3278122734</v>
       </c>
       <c r="AE2" t="n">
-        <v>222837.6539199608</v>
+        <v>325103.4601639695</v>
       </c>
       <c r="AF2" t="n">
         <v>1.569637282262804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201570.3409845154</v>
+        <v>294076.0422115889</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.2735032964821</v>
+        <v>231.0998989055313</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.4520573936552</v>
+        <v>316.2010770903846</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.1759312144008</v>
+        <v>286.0232900839709</v>
       </c>
       <c r="AD2" t="n">
-        <v>155273.5032964821</v>
+        <v>231099.8989055313</v>
       </c>
       <c r="AE2" t="n">
-        <v>212452.0573936552</v>
+        <v>316201.0770903846</v>
       </c>
       <c r="AF2" t="n">
         <v>1.423146007607164e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>192175.9312144008</v>
+        <v>286023.2900839709</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.0363329545703</v>
+        <v>244.9789586762822</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.0194563388058</v>
+        <v>335.1910189696194</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.6849678742676</v>
+        <v>303.2008585628086</v>
       </c>
       <c r="AD2" t="n">
-        <v>171036.3329545703</v>
+        <v>244978.9586762823</v>
       </c>
       <c r="AE2" t="n">
-        <v>234019.4563388058</v>
+        <v>335191.0189696194</v>
       </c>
       <c r="AF2" t="n">
         <v>1.677355696066949e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>211684.9678742676</v>
+        <v>303200.8585628086</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.0491843162463</v>
+        <v>228.0458506268135</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.9863548530702</v>
+        <v>312.022393500344</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.0866044952354</v>
+        <v>282.2434141909432</v>
       </c>
       <c r="AD2" t="n">
-        <v>160049.1843162462</v>
+        <v>228045.8506268135</v>
       </c>
       <c r="AE2" t="n">
-        <v>218986.3548530702</v>
+        <v>312022.393500344</v>
       </c>
       <c r="AF2" t="n">
         <v>1.154599927987633e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>198086.6044952354</v>
+        <v>282243.4141909432</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.9008804861068</v>
+        <v>262.5050605277802</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.1483213476843</v>
+        <v>359.1710047200412</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.6562710296716</v>
+        <v>324.8922281292308</v>
       </c>
       <c r="AD2" t="n">
-        <v>179900.8804861068</v>
+        <v>262505.0605277803</v>
       </c>
       <c r="AE2" t="n">
-        <v>246148.3213476843</v>
+        <v>359171.0047200412</v>
       </c>
       <c r="AF2" t="n">
         <v>1.72459423719087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>222656.2710296716</v>
+        <v>324892.2281292308</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.31721436128</v>
+        <v>224.369001038726</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.2483530346791</v>
+        <v>306.9915656827696</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.7053523240718</v>
+        <v>277.6927215194654</v>
       </c>
       <c r="AD2" t="n">
-        <v>157317.21436128</v>
+        <v>224369.001038726</v>
       </c>
       <c r="AE2" t="n">
-        <v>215248.3530346791</v>
+        <v>306991.5656827696</v>
       </c>
       <c r="AF2" t="n">
         <v>1.295389942833009e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>194705.3523240718</v>
+        <v>277692.7215194654</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.7437421515947</v>
+        <v>226.2340553778989</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.2001912913511</v>
+        <v>309.5434153100151</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.4709098769499</v>
+        <v>280.0010261998308</v>
       </c>
       <c r="AD2" t="n">
-        <v>158743.7421515947</v>
+        <v>226234.0553778989</v>
       </c>
       <c r="AE2" t="n">
-        <v>217200.1912913511</v>
+        <v>309543.4153100151</v>
       </c>
       <c r="AF2" t="n">
         <v>1.217725445454545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>196470.9098769499</v>
+        <v>280001.0261998309</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.52897728846</v>
+        <v>239.5974916838477</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.0110728815105</v>
+        <v>327.8278584170063</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.9180862767516</v>
+        <v>296.5404277190736</v>
       </c>
       <c r="AD2" t="n">
-        <v>161528.97728846</v>
+        <v>239597.4916838477</v>
       </c>
       <c r="AE2" t="n">
-        <v>221011.0728815105</v>
+        <v>327827.8584170063</v>
       </c>
       <c r="AF2" t="n">
         <v>1.087361597334046e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>199918.0862767516</v>
+        <v>296540.4277190737</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.5724141346835</v>
+        <v>239.6409285300712</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.0705050908118</v>
+        <v>327.8872906263076</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.9718463594108</v>
+        <v>296.5941878017329</v>
       </c>
       <c r="AD3" t="n">
-        <v>161572.4141346835</v>
+        <v>239640.9285300712</v>
       </c>
       <c r="AE3" t="n">
-        <v>221070.5050908118</v>
+        <v>327887.2906263076</v>
       </c>
       <c r="AF3" t="n">
         <v>1.091754803502472e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>199971.8463594108</v>
+        <v>296594.1878017329</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.9618831406256</v>
+        <v>222.6342424838479</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.3939290655872</v>
+        <v>304.6179924958406</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.0279119758891</v>
+        <v>275.5456788261652</v>
       </c>
       <c r="AD2" t="n">
-        <v>155961.8831406255</v>
+        <v>222634.2424838479</v>
       </c>
       <c r="AE2" t="n">
-        <v>213393.9290655872</v>
+        <v>304617.9924958405</v>
       </c>
       <c r="AF2" t="n">
         <v>1.376980901576687e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>193027.9119758891</v>
+        <v>275545.6788261652</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.0341120775269</v>
+        <v>229.2074136079195</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.7562676497999</v>
+        <v>313.6116952156344</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.6419852636426</v>
+        <v>283.6810351811259</v>
       </c>
       <c r="AD2" t="n">
-        <v>154034.1120775269</v>
+        <v>229207.4136079195</v>
       </c>
       <c r="AE2" t="n">
-        <v>210756.2676497999</v>
+        <v>313611.6952156344</v>
       </c>
       <c r="AF2" t="n">
         <v>1.516495791601643e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>190641.9852636426</v>
+        <v>283681.0351811259</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.2293687286189</v>
+        <v>236.6771080698363</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.969379349025</v>
+        <v>323.8320607180858</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.7849333199983</v>
+        <v>292.9259833443996</v>
       </c>
       <c r="AD2" t="n">
-        <v>162229.3687286189</v>
+        <v>236677.1080698363</v>
       </c>
       <c r="AE2" t="n">
-        <v>221969.379349025</v>
+        <v>323832.0607180857</v>
       </c>
       <c r="AF2" t="n">
         <v>1.623798005012709e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>200784.9333199983</v>
+        <v>292925.9833443996</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.4418406033048</v>
+        <v>289.5175098987115</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.5168809494529</v>
+        <v>396.1306296545091</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.6036909080524</v>
+        <v>358.3244783331127</v>
       </c>
       <c r="AD2" t="n">
-        <v>198441.8406033048</v>
+        <v>289517.5098987115</v>
       </c>
       <c r="AE2" t="n">
-        <v>271516.8809494529</v>
+        <v>396130.6296545091</v>
       </c>
       <c r="AF2" t="n">
         <v>1.733490806257132e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>245603.6909080524</v>
+        <v>358324.4783331127</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.1244426878816</v>
+        <v>225.5016544521819</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.3528384435353</v>
+        <v>308.5413120522011</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.7044271956621</v>
+        <v>279.0945622704816</v>
       </c>
       <c r="AD2" t="n">
-        <v>158124.4426878816</v>
+        <v>225501.6544521819</v>
       </c>
       <c r="AE2" t="n">
-        <v>216352.8384435353</v>
+        <v>308541.3120522011</v>
       </c>
       <c r="AF2" t="n">
         <v>1.24990482073627e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>195704.4271956621</v>
+        <v>279094.5622704815</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.6985186203622</v>
+        <v>238.5549835452597</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.8748026945689</v>
+        <v>326.4014527895778</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.8902601216861</v>
+        <v>295.2501562427537</v>
       </c>
       <c r="AD2" t="n">
-        <v>160698.5186203622</v>
+        <v>238554.9835452597</v>
       </c>
       <c r="AE2" t="n">
-        <v>219874.8026945689</v>
+        <v>326401.4527895778</v>
       </c>
       <c r="AF2" t="n">
         <v>1.124749947267831e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>198890.2601216861</v>
+        <v>295250.1562427537</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.3159599556626</v>
+        <v>353.604672440807</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.6521189875145</v>
+        <v>483.8175127706729</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.6179518421538</v>
+        <v>437.6426483939831</v>
       </c>
       <c r="AD2" t="n">
-        <v>245315.9599556626</v>
+        <v>353604.672440807</v>
       </c>
       <c r="AE2" t="n">
-        <v>335652.1189875145</v>
+        <v>483817.5127706729</v>
       </c>
       <c r="AF2" t="n">
         <v>1.654059647443968e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>303617.9518421538</v>
+        <v>437642.6483939831</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.6961132676979</v>
+        <v>230.2068107330323</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.6620468836228</v>
+        <v>314.9791144525026</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.4613181986589</v>
+        <v>284.9179498452127</v>
       </c>
       <c r="AD2" t="n">
-        <v>154696.1132676979</v>
+        <v>230206.8107330324</v>
       </c>
       <c r="AE2" t="n">
-        <v>211662.0468836228</v>
+        <v>314979.1144525026</v>
       </c>
       <c r="AF2" t="n">
         <v>1.467324342197179e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>191461.3181986589</v>
+        <v>284917.9498452127</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.736515275933</v>
+        <v>223.6553163385682</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.4538149274723</v>
+        <v>306.0150707904675</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.9866438186752</v>
+        <v>276.8094219291651</v>
       </c>
       <c r="AD2" t="n">
-        <v>156736.515275933</v>
+        <v>223655.3163385682</v>
       </c>
       <c r="AE2" t="n">
-        <v>214453.8149274723</v>
+        <v>306015.0707904674</v>
       </c>
       <c r="AF2" t="n">
         <v>1.328964617101035e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>193986.6438186752</v>
+        <v>276809.4219291651</v>
       </c>
     </row>
   </sheetData>
